--- a/A- current/vhdl automation file .xlsx
+++ b/A- current/vhdl automation file .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inksd\Desktop\const desktop files- do not remove\16 bit computer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudkr\Desktop\16 bit computer\A- current\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D768F172-6D5B-47A4-960C-642A5A4439EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7A9960-008C-4030-804D-C7149A857E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A34A78EF-42B5-4A41-90F1-6ABAD0EFD3B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A34A78EF-42B5-4A41-90F1-6ABAD0EFD3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,16 +50,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="&quot;f(&quot;\ 0&quot;) &lt;= a&quot;"/>
-    <numFmt numFmtId="165" formatCode="0&quot;;&quot;"/>
-    <numFmt numFmtId="168" formatCode="&quot;c(&quot;0&quot;)&lt;=&quot;"/>
-    <numFmt numFmtId="169" formatCode="&quot;d&quot;0&quot;;&quot;\ "/>
+  <numFmts count="6">
+    <numFmt numFmtId="168" formatCode="&quot;A&quot;0&quot;&lt;=&quot;"/>
+    <numFmt numFmtId="169" formatCode="&quot;b&quot;0&quot;;&quot;\ "/>
+    <numFmt numFmtId="170" formatCode="&quot;b(&quot;0&quot;);&quot;\ "/>
+    <numFmt numFmtId="171" formatCode="&quot;A&quot;0&quot;&quot;"/>
+    <numFmt numFmtId="172" formatCode="&quot;A&quot;0&quot;,&quot;"/>
+    <numFmt numFmtId="173" formatCode="&quot;A&quot;0&quot;, &quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,12 +93,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735D7F22-CBDF-451B-BC44-116ED9296D7C}">
-  <dimension ref="E6:J24"/>
+  <dimension ref="E5:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,153 +426,338 @@
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="4"/>
+      <c r="N6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E8" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E9" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E10" s="3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E10" s="6">
         <v>3</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E11" s="3">
+      <c r="J10" s="1"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E11" s="6">
         <v>4</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E12" s="3">
+      <c r="J11" s="1"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E12" s="6">
         <v>5</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E13" s="3">
+      <c r="J12" s="1"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E13" s="6">
         <v>6</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E14" s="3">
+      <c r="J13" s="1"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E14" s="6">
         <v>7</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E15" s="3">
+      <c r="J14" s="1"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E15" s="6">
         <v>8</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E16" s="3">
+      <c r="J15" s="1"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E16" s="6">
         <v>9</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E17" s="3">
+      <c r="J16" s="1"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E17" s="6">
         <v>10</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E18" s="3">
+      <c r="J17" s="1"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E18" s="6">
         <v>11</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E19" s="3">
+      <c r="J18" s="1"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E19" s="6">
         <v>12</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E20" s="3">
+      <c r="J19" s="1"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E20" s="6">
         <v>13</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E21" s="3">
+      <c r="J20" s="1"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E21" s="6">
         <v>14</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E22" s="3">
+      <c r="J21" s="1"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E22" s="6">
         <v>15</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E24" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E23" s="6">
+        <v>16</v>
+      </c>
+      <c r="F23" s="3">
+        <v>16</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E24" s="6">
+        <v>17</v>
+      </c>
+      <c r="F24" s="3">
+        <v>17</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E25" s="6">
+        <v>18</v>
+      </c>
+      <c r="F25" s="3">
+        <v>18</v>
+      </c>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E26" s="6">
+        <v>19</v>
+      </c>
+      <c r="F26" s="3">
+        <v>19</v>
+      </c>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E27" s="6">
+        <v>20</v>
+      </c>
+      <c r="F27" s="3">
+        <v>20</v>
+      </c>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E28" s="6">
+        <v>21</v>
+      </c>
+      <c r="F28" s="3">
+        <v>21</v>
+      </c>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E29" s="6">
+        <v>22</v>
+      </c>
+      <c r="F29" s="3">
+        <v>22</v>
+      </c>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E30" s="6">
+        <v>23</v>
+      </c>
+      <c r="F30" s="3">
+        <v>23</v>
+      </c>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E31" s="6">
+        <v>24</v>
+      </c>
+      <c r="F31" s="3">
+        <v>24</v>
+      </c>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E32" s="6">
+        <v>25</v>
+      </c>
+      <c r="F32" s="3">
+        <v>25</v>
+      </c>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E33" s="6">
+        <v>26</v>
+      </c>
+      <c r="F33" s="3">
+        <v>26</v>
+      </c>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E34" s="6">
+        <v>27</v>
+      </c>
+      <c r="F34" s="3">
+        <v>27</v>
+      </c>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E35" s="6">
+        <v>28</v>
+      </c>
+      <c r="F35" s="3">
+        <v>28</v>
+      </c>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E36" s="6">
+        <v>29</v>
+      </c>
+      <c r="F36" s="3">
+        <v>29</v>
+      </c>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E37" s="6">
+        <v>30</v>
+      </c>
+      <c r="F37" s="3">
+        <v>30</v>
+      </c>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E38" s="6">
+        <v>31</v>
+      </c>
+      <c r="F38" s="3">
+        <v>31</v>
+      </c>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E40" s="1"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E41" s="1"/>
+      <c r="F41" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/A- current/vhdl automation file .xlsx
+++ b/A- current/vhdl automation file .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudkr\Desktop\16 bit computer\A- current\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7A9960-008C-4030-804D-C7149A857E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582839B7-4C81-4BF7-90F5-8F6735E6AD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A34A78EF-42B5-4A41-90F1-6ABAD0EFD3B1}"/>
   </bookViews>
@@ -51,12 +51,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="168" formatCode="&quot;A&quot;0&quot;&lt;=&quot;"/>
-    <numFmt numFmtId="169" formatCode="&quot;b&quot;0&quot;;&quot;\ "/>
-    <numFmt numFmtId="170" formatCode="&quot;b(&quot;0&quot;);&quot;\ "/>
-    <numFmt numFmtId="171" formatCode="&quot;A&quot;0&quot;&quot;"/>
-    <numFmt numFmtId="172" formatCode="&quot;A&quot;0&quot;,&quot;"/>
-    <numFmt numFmtId="173" formatCode="&quot;A&quot;0&quot;, &quot;"/>
+    <numFmt numFmtId="164" formatCode="&quot;A&quot;0&quot;&lt;=&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;b&quot;0&quot;;&quot;\ "/>
+    <numFmt numFmtId="166" formatCode="&quot;b(&quot;0&quot;);&quot;\ "/>
+    <numFmt numFmtId="167" formatCode="&quot;A&quot;0&quot;&quot;"/>
+    <numFmt numFmtId="168" formatCode="&quot;A&quot;0&quot;,&quot;"/>
+    <numFmt numFmtId="169" formatCode="&quot;A&quot;0&quot;, &quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -95,12 +95,12 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735D7F22-CBDF-451B-BC44-116ED9296D7C}">
   <dimension ref="E5:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/A- current/vhdl automation file .xlsx
+++ b/A- current/vhdl automation file .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudkr\Desktop\16 bit computer\A- current\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582839B7-4C81-4BF7-90F5-8F6735E6AD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF38543B-F7D8-431A-AB25-D0B6BEED72CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A34A78EF-42B5-4A41-90F1-6ABAD0EFD3B1}"/>
   </bookViews>
@@ -50,13 +50,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;A&quot;0&quot;&lt;=&quot;"/>
-    <numFmt numFmtId="165" formatCode="&quot;b&quot;0&quot;;&quot;\ "/>
     <numFmt numFmtId="166" formatCode="&quot;b(&quot;0&quot;);&quot;\ "/>
     <numFmt numFmtId="167" formatCode="&quot;A&quot;0&quot;&quot;"/>
     <numFmt numFmtId="168" formatCode="&quot;A&quot;0&quot;,&quot;"/>
-    <numFmt numFmtId="169" formatCode="&quot;A&quot;0&quot;, &quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -93,14 +91,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735D7F22-CBDF-451B-BC44-116ED9296D7C}">
-  <dimension ref="E5:N41"/>
+  <dimension ref="E5:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,326 +431,570 @@
       <c r="E6" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="3"/>
       <c r="N6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E7" s="6">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E8" s="6">
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E9" s="6">
+      <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>2</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E10" s="6">
+      <c r="E10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>3</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E11" s="6">
+      <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>4</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="5"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E12" s="6">
+      <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>5</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="5"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E13" s="6">
+      <c r="E13" s="1">
         <v>6</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>6</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="5"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E14" s="6">
+      <c r="E14" s="1">
         <v>7</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>7</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E15" s="6">
+      <c r="E15" s="1">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>8</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E16" s="6">
+      <c r="E16" s="1">
         <v>9</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>9</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="5"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E17" s="6">
+      <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>10</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="5"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E18" s="6">
+      <c r="E18" s="1">
         <v>11</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>11</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="5"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E19" s="6">
+      <c r="E19" s="1">
         <v>12</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>12</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="5"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E20" s="6">
+      <c r="E20" s="1">
         <v>13</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>13</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="5"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E21" s="6">
+      <c r="E21" s="1">
         <v>14</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>14</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="5"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E22" s="6">
+      <c r="E22" s="1">
         <v>15</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>15</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="5"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E23" s="6">
+      <c r="E23" s="1">
         <v>16</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>16</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="5"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E24" s="6">
+      <c r="E24" s="1">
         <v>17</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>17</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="5"/>
+      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E25" s="6">
+      <c r="E25" s="1">
         <v>18</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>18</v>
       </c>
-      <c r="K25" s="5"/>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E26" s="6">
+      <c r="E26" s="1">
         <v>19</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>19</v>
       </c>
-      <c r="K26" s="5"/>
+      <c r="K26" s="4"/>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E27" s="6">
+      <c r="E27" s="1">
         <v>20</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>20</v>
       </c>
-      <c r="K27" s="5"/>
+      <c r="K27" s="4"/>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E28" s="6">
+      <c r="E28" s="1">
         <v>21</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>21</v>
       </c>
-      <c r="K28" s="5"/>
+      <c r="K28" s="4"/>
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E29" s="6">
+      <c r="E29" s="1">
         <v>22</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>22</v>
       </c>
-      <c r="K29" s="5"/>
+      <c r="K29" s="4"/>
     </row>
     <row r="30" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E30" s="6">
+      <c r="E30" s="1">
         <v>23</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>23</v>
       </c>
-      <c r="K30" s="5"/>
+      <c r="K30" s="4"/>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E31" s="6">
+      <c r="E31" s="1">
         <v>24</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>24</v>
       </c>
-      <c r="K31" s="5"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E32" s="6">
+      <c r="E32" s="1">
         <v>25</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>25</v>
       </c>
-      <c r="K32" s="5"/>
+      <c r="K32" s="4"/>
     </row>
     <row r="33" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E33" s="6">
+      <c r="E33" s="1">
         <v>26</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>26</v>
       </c>
-      <c r="K33" s="5"/>
+      <c r="K33" s="4"/>
     </row>
     <row r="34" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E34" s="6">
+      <c r="E34" s="1">
         <v>27</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>27</v>
       </c>
-      <c r="K34" s="5"/>
+      <c r="K34" s="4"/>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E35" s="6">
+      <c r="E35" s="1">
         <v>28</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>28</v>
       </c>
-      <c r="K35" s="5"/>
+      <c r="K35" s="4"/>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E36" s="6">
+      <c r="E36" s="1">
         <v>29</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>29</v>
       </c>
-      <c r="K36" s="5"/>
+      <c r="K36" s="4"/>
     </row>
     <row r="37" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E37" s="6">
+      <c r="E37" s="1">
         <v>30</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>30</v>
       </c>
-      <c r="K37" s="5"/>
+      <c r="K37" s="4"/>
     </row>
     <row r="38" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E38" s="6">
+      <c r="E38" s="1">
         <v>31</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>31</v>
       </c>
-      <c r="K38" s="5"/>
+      <c r="K38" s="4"/>
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E39" s="1"/>
-      <c r="F39" s="2"/>
+      <c r="E39" s="1">
+        <v>32</v>
+      </c>
+      <c r="F39" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E40" s="1"/>
-      <c r="F40" s="2"/>
+      <c r="E40" s="1">
+        <v>33</v>
+      </c>
+      <c r="F40" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="41" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E41" s="1"/>
-      <c r="F41" s="2"/>
+      <c r="E41" s="1">
+        <v>34</v>
+      </c>
+      <c r="F41" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E42" s="1">
+        <v>35</v>
+      </c>
+      <c r="F42" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E43" s="1">
+        <v>36</v>
+      </c>
+      <c r="F43" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E44" s="1">
+        <v>37</v>
+      </c>
+      <c r="F44" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E45" s="1">
+        <v>38</v>
+      </c>
+      <c r="F45" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E46" s="1">
+        <v>39</v>
+      </c>
+      <c r="F46" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E47" s="1">
+        <v>40</v>
+      </c>
+      <c r="F47" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E48" s="1">
+        <v>41</v>
+      </c>
+      <c r="F48" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E49" s="1">
+        <v>42</v>
+      </c>
+      <c r="F49" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E50" s="1">
+        <v>43</v>
+      </c>
+      <c r="F50" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E51" s="1">
+        <v>44</v>
+      </c>
+      <c r="F51" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E52" s="1">
+        <v>45</v>
+      </c>
+      <c r="F52" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E53" s="1">
+        <v>46</v>
+      </c>
+      <c r="F53" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E54" s="1">
+        <v>47</v>
+      </c>
+      <c r="F54" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E55" s="1">
+        <v>48</v>
+      </c>
+      <c r="F55" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E56" s="1">
+        <v>49</v>
+      </c>
+      <c r="F56" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E57" s="1">
+        <v>50</v>
+      </c>
+      <c r="F57" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E58" s="1">
+        <v>51</v>
+      </c>
+      <c r="F58" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E59" s="1">
+        <v>52</v>
+      </c>
+      <c r="F59" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E60" s="1">
+        <v>53</v>
+      </c>
+      <c r="F60" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E61" s="1">
+        <v>54</v>
+      </c>
+      <c r="F61" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E62" s="1">
+        <v>55</v>
+      </c>
+      <c r="F62" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E63" s="1">
+        <v>56</v>
+      </c>
+      <c r="F63" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E64" s="1">
+        <v>57</v>
+      </c>
+      <c r="F64" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E65" s="1">
+        <v>58</v>
+      </c>
+      <c r="F65" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E66" s="1">
+        <v>59</v>
+      </c>
+      <c r="F66" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E67" s="1">
+        <v>60</v>
+      </c>
+      <c r="F67" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E68" s="1">
+        <v>61</v>
+      </c>
+      <c r="F68" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E69" s="1">
+        <v>62</v>
+      </c>
+      <c r="F69" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E70" s="1">
+        <v>63</v>
+      </c>
+      <c r="F70" s="2">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
